--- a/result/interactions_download/Lung_cancer_SCLC_precog.xlsx
+++ b/result/interactions_download/Lung_cancer_SCLC_precog.xlsx
@@ -1731,64 +1731,64 @@
     <t xml:space="preserve">TMC4</t>
   </si>
   <si>
+    <t xml:space="preserve">RPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTSJ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNLL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC3A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRT18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS27A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIGT</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC3A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMGA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRT18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTSJ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPL5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS27A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYNLL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBE2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPAN15</t>
   </si>
 </sst>
 </file>
@@ -13380,6 +13380,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>572</v>
+      </c>
+      <c r="B564"/>
+      <c r="C564"/>
+      <c r="D564"/>
+      <c r="E564"/>
+      <c r="F564"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>573</v>
+      </c>
+      <c r="B565"/>
+      <c r="C565"/>
+      <c r="D565"/>
+      <c r="E565"/>
+      <c r="F565"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>574</v>
+      </c>
+      <c r="B566"/>
+      <c r="C566"/>
+      <c r="D566"/>
+      <c r="E566"/>
+      <c r="F566"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>575</v>
+      </c>
+      <c r="B567"/>
+      <c r="C567"/>
+      <c r="D567"/>
+      <c r="E567"/>
+      <c r="F567"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>576</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+      <c r="E568"/>
+      <c r="F568"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>577</v>
+      </c>
+      <c r="B569"/>
+      <c r="C569"/>
+      <c r="D569"/>
+      <c r="E569"/>
+      <c r="F569"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>578</v>
+      </c>
+      <c r="B570"/>
+      <c r="C570"/>
+      <c r="D570"/>
+      <c r="E570"/>
+      <c r="F570"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>579</v>
+      </c>
+      <c r="B571"/>
+      <c r="C571"/>
+      <c r="D571"/>
+      <c r="E571"/>
+      <c r="F571"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>580</v>
+      </c>
+      <c r="B572"/>
+      <c r="C572"/>
+      <c r="D572"/>
+      <c r="E572"/>
+      <c r="F572"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>581</v>
+      </c>
+      <c r="B573"/>
+      <c r="C573"/>
+      <c r="D573"/>
+      <c r="E573"/>
+      <c r="F573"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>582</v>
+      </c>
+      <c r="B574"/>
+      <c r="C574"/>
+      <c r="D574"/>
+      <c r="E574"/>
+      <c r="F574"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>583</v>
+      </c>
+      <c r="B575"/>
+      <c r="C575"/>
+      <c r="D575"/>
+      <c r="E575"/>
+      <c r="F575"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>584</v>
+      </c>
+      <c r="B576"/>
+      <c r="C576"/>
+      <c r="D576"/>
+      <c r="E576"/>
+      <c r="F576"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>585</v>
+      </c>
+      <c r="B577"/>
+      <c r="C577"/>
+      <c r="D577"/>
+      <c r="E577"/>
+      <c r="F577"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>586</v>
+      </c>
+      <c r="B578"/>
+      <c r="C578"/>
+      <c r="D578"/>
+      <c r="E578"/>
+      <c r="F578"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>587</v>
+      </c>
+      <c r="B579"/>
+      <c r="C579"/>
+      <c r="D579"/>
+      <c r="E579"/>
+      <c r="F579"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>588</v>
+      </c>
+      <c r="B580"/>
+      <c r="C580"/>
+      <c r="D580"/>
+      <c r="E580"/>
+      <c r="F580"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>589</v>
+      </c>
+      <c r="B581"/>
+      <c r="C581"/>
+      <c r="D581"/>
+      <c r="E581"/>
+      <c r="F581"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13396,10 +13576,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2">
@@ -13447,7 +13627,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
@@ -13463,7 +13643,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10">
@@ -13471,7 +13651,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11">
@@ -13495,7 +13675,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -13511,7 +13691,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16">
@@ -13527,7 +13707,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18">
@@ -13551,7 +13731,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21">
@@ -13575,7 +13755,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24">
@@ -13591,7 +13771,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26">
@@ -13599,7 +13779,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27">
@@ -13639,7 +13819,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32">
@@ -13655,7 +13835,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34">
@@ -13663,7 +13843,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
@@ -13695,7 +13875,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39">
@@ -13719,7 +13899,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42">
@@ -13759,7 +13939,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47">
@@ -13775,7 +13955,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49">
@@ -13783,7 +13963,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50">
@@ -13791,7 +13971,7 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51">
@@ -13847,7 +14027,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58">
@@ -13879,7 +14059,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62">
@@ -13887,7 +14067,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63">
@@ -13895,7 +14075,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64">
@@ -13903,7 +14083,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65">
@@ -13919,7 +14099,7 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
@@ -13927,7 +14107,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68">
@@ -13943,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70">
@@ -13967,7 +14147,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73">
@@ -13983,7 +14163,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75">
@@ -13999,7 +14179,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77">
@@ -14007,7 +14187,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78">
@@ -14015,7 +14195,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79">
@@ -14039,7 +14219,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82">
@@ -14052,7 +14232,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -14071,12 +14251,12 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -14119,7 +14299,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92">
@@ -14135,12 +14315,12 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -14156,7 +14336,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -14188,7 +14368,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
@@ -14196,7 +14376,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -14204,7 +14384,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -14212,7 +14392,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -14231,7 +14411,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106">
@@ -14252,7 +14432,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -14268,7 +14448,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -14276,7 +14456,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
@@ -14284,7 +14464,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
@@ -14295,7 +14475,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114">
@@ -14308,7 +14488,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
@@ -14335,7 +14515,7 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119">
@@ -14343,7 +14523,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120">
@@ -14351,7 +14531,7 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="121">
@@ -14399,7 +14579,7 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127">
@@ -14423,7 +14603,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="130">
@@ -14447,7 +14627,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="133">
@@ -14471,7 +14651,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136">
@@ -14495,7 +14675,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="139">
@@ -14527,7 +14707,7 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="143">
@@ -14535,7 +14715,7 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144">
@@ -14559,7 +14739,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147">
@@ -14583,7 +14763,7 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150">
@@ -14591,12 +14771,12 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -14620,7 +14800,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
@@ -14628,7 +14808,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
@@ -14660,7 +14840,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
@@ -14692,7 +14872,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B163" t="s">
         <v>17</v>
@@ -14703,7 +14883,7 @@
         <v>18</v>
       </c>
       <c r="B164" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="165">
@@ -14711,7 +14891,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="166">
@@ -14719,7 +14899,7 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167">
@@ -14727,12 +14907,12 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -14748,7 +14928,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B170" t="s">
         <v>18</v>
@@ -14756,7 +14936,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
@@ -14764,7 +14944,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
@@ -14799,7 +14979,7 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177">
@@ -14828,7 +15008,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B180" t="s">
         <v>19</v>
@@ -14839,7 +15019,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="182">
@@ -14855,7 +15035,7 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="184">
@@ -14887,7 +15067,7 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188">
@@ -14895,7 +15075,7 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189">
@@ -14916,7 +15096,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -14924,7 +15104,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
@@ -14932,7 +15112,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -14940,7 +15120,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B194" t="s">
         <v>20</v>
@@ -14956,7 +15136,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
@@ -14967,7 +15147,7 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198">
@@ -14983,7 +15163,7 @@
         <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200">
@@ -14991,7 +15171,7 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="201">
@@ -15015,7 +15195,7 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204">
@@ -15047,7 +15227,7 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208">
@@ -15071,7 +15251,7 @@
         <v>22</v>
       </c>
       <c r="B210" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211">
@@ -15095,7 +15275,7 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214">
@@ -15103,7 +15283,7 @@
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215">
@@ -15143,7 +15323,7 @@
         <v>23</v>
       </c>
       <c r="B219" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="220">
@@ -15151,12 +15331,12 @@
         <v>23</v>
       </c>
       <c r="B220" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B221" t="s">
         <v>23</v>
@@ -15207,7 +15387,7 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228">
@@ -15215,7 +15395,7 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229">
@@ -15247,7 +15427,7 @@
         <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233">
@@ -15255,12 +15435,12 @@
         <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
@@ -15284,7 +15464,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B237" t="s">
         <v>25</v>
@@ -15295,12 +15475,12 @@
         <v>25</v>
       </c>
       <c r="B238" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B239" t="s">
         <v>25</v>
@@ -15327,7 +15507,7 @@
         <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243">
@@ -15335,7 +15515,7 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244">
@@ -15359,7 +15539,7 @@
         <v>28</v>
       </c>
       <c r="B246" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="247">
@@ -15372,7 +15552,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B248" t="s">
         <v>28</v>
@@ -15407,7 +15587,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="253">
@@ -15431,7 +15611,7 @@
         <v>29</v>
       </c>
       <c r="B255" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="256">
@@ -15463,7 +15643,7 @@
         <v>29</v>
       </c>
       <c r="B259" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="260">
@@ -15471,7 +15651,7 @@
         <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="261">
@@ -15479,7 +15659,7 @@
         <v>29</v>
       </c>
       <c r="B261" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262">
@@ -15511,7 +15691,7 @@
         <v>30</v>
       </c>
       <c r="B265" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="266">
@@ -15535,7 +15715,7 @@
         <v>30</v>
       </c>
       <c r="B268" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="269">
@@ -15543,7 +15723,7 @@
         <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="270">
@@ -15556,7 +15736,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B271" t="s">
         <v>31</v>
@@ -15564,7 +15744,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B272" t="s">
         <v>31</v>
@@ -15580,7 +15760,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B274" t="s">
         <v>31</v>
@@ -15588,7 +15768,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B275" t="s">
         <v>31</v>
@@ -15596,7 +15776,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B276" t="s">
         <v>31</v>
@@ -15620,7 +15800,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B279" t="s">
         <v>31</v>
@@ -15631,7 +15811,7 @@
         <v>31</v>
       </c>
       <c r="B280" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281">
@@ -15660,7 +15840,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B284" t="s">
         <v>32</v>
@@ -15671,7 +15851,7 @@
         <v>32</v>
       </c>
       <c r="B285" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286">
@@ -15679,7 +15859,7 @@
         <v>32</v>
       </c>
       <c r="B286" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287">
@@ -15719,7 +15899,7 @@
         <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292">
@@ -15735,7 +15915,7 @@
         <v>33</v>
       </c>
       <c r="B293" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294">
@@ -15751,7 +15931,7 @@
         <v>33</v>
       </c>
       <c r="B295" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="296">
@@ -15804,7 +15984,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B302" t="s">
         <v>34</v>
@@ -15815,7 +15995,7 @@
         <v>35</v>
       </c>
       <c r="B303" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="304">
@@ -15836,7 +16016,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B306" t="s">
         <v>35</v>
@@ -15847,7 +16027,7 @@
         <v>35</v>
       </c>
       <c r="B307" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="308">
@@ -15855,7 +16035,7 @@
         <v>36</v>
       </c>
       <c r="B308" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="309">
@@ -15863,7 +16043,7 @@
         <v>36</v>
       </c>
       <c r="B309" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="310">
@@ -15871,7 +16051,7 @@
         <v>36</v>
       </c>
       <c r="B310" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="311">
@@ -15887,7 +16067,7 @@
         <v>36</v>
       </c>
       <c r="B312" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313">
@@ -15948,7 +16128,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B320" t="s">
         <v>37</v>
@@ -15967,7 +16147,7 @@
         <v>38</v>
       </c>
       <c r="B322" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="323">
@@ -15999,7 +16179,7 @@
         <v>38</v>
       </c>
       <c r="B326" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="327">
@@ -16007,7 +16187,7 @@
         <v>38</v>
       </c>
       <c r="B327" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="328">
@@ -16031,7 +16211,7 @@
         <v>39</v>
       </c>
       <c r="B330" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="331">
@@ -16044,7 +16224,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B332" t="s">
         <v>39</v>
@@ -16060,7 +16240,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B334" t="s">
         <v>40</v>
@@ -16076,7 +16256,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B336" t="s">
         <v>40</v>
@@ -16092,7 +16272,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B338" t="s">
         <v>40</v>
@@ -16100,7 +16280,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B339" t="s">
         <v>40</v>
@@ -16108,7 +16288,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B340" t="s">
         <v>40</v>
@@ -16116,7 +16296,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B341" t="s">
         <v>41</v>
@@ -16135,7 +16315,7 @@
         <v>41</v>
       </c>
       <c r="B343" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="344">
@@ -16156,7 +16336,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B346" t="s">
         <v>42</v>
@@ -16164,7 +16344,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B347" t="s">
         <v>42</v>
@@ -16199,7 +16379,7 @@
         <v>43</v>
       </c>
       <c r="B351" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352">
@@ -16207,7 +16387,7 @@
         <v>43</v>
       </c>
       <c r="B352" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="353">
@@ -16228,7 +16408,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B355" t="s">
         <v>44</v>
@@ -16236,7 +16416,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B356" t="s">
         <v>44</v>
@@ -16244,7 +16424,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B357" t="s">
         <v>44</v>
@@ -16268,7 +16448,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B360" t="s">
         <v>45</v>
@@ -16279,7 +16459,7 @@
         <v>45</v>
       </c>
       <c r="B361" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="362">
@@ -16287,7 +16467,7 @@
         <v>46</v>
       </c>
       <c r="B362" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363">
@@ -16319,7 +16499,7 @@
         <v>46</v>
       </c>
       <c r="B366" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="367">
@@ -16327,7 +16507,7 @@
         <v>46</v>
       </c>
       <c r="B367" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="368">
@@ -16343,7 +16523,7 @@
         <v>47</v>
       </c>
       <c r="B369" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="370">
@@ -16383,7 +16563,7 @@
         <v>47</v>
       </c>
       <c r="B374" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375">
@@ -16391,7 +16571,7 @@
         <v>48</v>
       </c>
       <c r="B375" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376">
@@ -16399,7 +16579,7 @@
         <v>48</v>
       </c>
       <c r="B376" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377">
@@ -16415,7 +16595,7 @@
         <v>48</v>
       </c>
       <c r="B378" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379">
@@ -16423,7 +16603,7 @@
         <v>48</v>
       </c>
       <c r="B379" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="380">
@@ -16447,7 +16627,7 @@
         <v>49</v>
       </c>
       <c r="B382" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="383">
@@ -16471,7 +16651,7 @@
         <v>49</v>
       </c>
       <c r="B385" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="386">
@@ -16487,7 +16667,7 @@
         <v>50</v>
       </c>
       <c r="B387" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="388">
@@ -16508,7 +16688,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B390" t="s">
         <v>50</v>
@@ -16527,12 +16707,12 @@
         <v>51</v>
       </c>
       <c r="B392" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B393" t="s">
         <v>51</v>
@@ -16551,7 +16731,7 @@
         <v>51</v>
       </c>
       <c r="B395" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="396">
@@ -16575,12 +16755,12 @@
         <v>51</v>
       </c>
       <c r="B398" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B399" t="s">
         <v>51</v>
@@ -16596,7 +16776,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B401" t="s">
         <v>52</v>
@@ -16604,7 +16784,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B402" t="s">
         <v>52</v>
@@ -16615,7 +16795,7 @@
         <v>53</v>
       </c>
       <c r="B403" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404">
@@ -16647,7 +16827,7 @@
         <v>53</v>
       </c>
       <c r="B407" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="408">
@@ -16663,7 +16843,7 @@
         <v>53</v>
       </c>
       <c r="B409" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="410">
@@ -16671,7 +16851,7 @@
         <v>54</v>
       </c>
       <c r="B410" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="411">
@@ -16700,7 +16880,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B414" t="s">
         <v>55</v>
@@ -16708,7 +16888,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B415" t="s">
         <v>55</v>
@@ -16727,7 +16907,7 @@
         <v>55</v>
       </c>
       <c r="B417" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418">
@@ -16751,7 +16931,7 @@
         <v>56</v>
       </c>
       <c r="B420" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="421">
@@ -16759,7 +16939,7 @@
         <v>56</v>
       </c>
       <c r="B421" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422">
@@ -16767,12 +16947,12 @@
         <v>57</v>
       </c>
       <c r="B422" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B423" t="s">
         <v>57</v>
@@ -16791,7 +16971,7 @@
         <v>57</v>
       </c>
       <c r="B425" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="426">
@@ -16799,7 +16979,7 @@
         <v>58</v>
       </c>
       <c r="B426" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427">
@@ -16807,7 +16987,7 @@
         <v>58</v>
       </c>
       <c r="B427" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428">
@@ -16815,7 +16995,7 @@
         <v>58</v>
       </c>
       <c r="B428" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="429">
@@ -16839,7 +17019,7 @@
         <v>59</v>
       </c>
       <c r="B431" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432">
@@ -16871,7 +17051,7 @@
         <v>61</v>
       </c>
       <c r="B435" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="436">
@@ -16892,7 +17072,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B438" t="s">
         <v>63</v>
@@ -16900,7 +17080,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B439" t="s">
         <v>63</v>
@@ -16908,7 +17088,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B440" t="s">
         <v>63</v>
@@ -16924,7 +17104,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B442" t="s">
         <v>64</v>
@@ -16932,7 +17112,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B443" t="s">
         <v>65</v>
@@ -16940,7 +17120,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B444" t="s">
         <v>65</v>
@@ -16956,7 +17136,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B446" t="s">
         <v>65</v>
@@ -16980,7 +17160,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B449" t="s">
         <v>65</v>
@@ -16999,7 +17179,7 @@
         <v>66</v>
       </c>
       <c r="B451" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="452">
@@ -17015,7 +17195,7 @@
         <v>66</v>
       </c>
       <c r="B453" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="454">
@@ -17023,7 +17203,7 @@
         <v>66</v>
       </c>
       <c r="B454" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="455">
@@ -17044,7 +17224,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B457" t="s">
         <v>67</v>
@@ -17052,7 +17232,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B458" t="s">
         <v>67</v>
@@ -17079,12 +17259,12 @@
         <v>67</v>
       </c>
       <c r="B461" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B462" t="s">
         <v>68</v>
@@ -17095,7 +17275,7 @@
         <v>68</v>
       </c>
       <c r="B463" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="464">
@@ -17111,7 +17291,7 @@
         <v>69</v>
       </c>
       <c r="B465" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="466">
@@ -17119,7 +17299,7 @@
         <v>69</v>
       </c>
       <c r="B466" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="467">
@@ -17140,7 +17320,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B469" t="s">
         <v>70</v>
@@ -17148,7 +17328,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B470" t="s">
         <v>70</v>
@@ -17156,7 +17336,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B471" t="s">
         <v>70</v>
@@ -17164,7 +17344,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B472" t="s">
         <v>71</v>
@@ -17175,7 +17355,7 @@
         <v>71</v>
       </c>
       <c r="B473" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="474">
@@ -17207,12 +17387,12 @@
         <v>71</v>
       </c>
       <c r="B477" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B478" t="s">
         <v>71</v>
@@ -17252,7 +17432,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B483" t="s">
         <v>72</v>
@@ -17268,7 +17448,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B485" t="s">
         <v>72</v>
@@ -17276,7 +17456,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B486" t="s">
         <v>72</v>
@@ -17324,7 +17504,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B492" t="s">
         <v>74</v>
@@ -17348,7 +17528,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B495" t="s">
         <v>74</v>
@@ -17356,7 +17536,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B496" t="s">
         <v>74</v>
@@ -17367,7 +17547,7 @@
         <v>74</v>
       </c>
       <c r="B497" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="498">
@@ -17396,7 +17576,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B501" t="s">
         <v>76</v>
@@ -17444,7 +17624,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B507" t="s">
         <v>77</v>
@@ -17455,12 +17635,12 @@
         <v>77</v>
       </c>
       <c r="B508" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B509" t="s">
         <v>78</v>
@@ -17468,7 +17648,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B510" t="s">
         <v>78</v>
@@ -17495,7 +17675,7 @@
         <v>80</v>
       </c>
       <c r="B513" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="514">
@@ -17519,7 +17699,7 @@
         <v>81</v>
       </c>
       <c r="B516" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="517">
@@ -17527,7 +17707,7 @@
         <v>82</v>
       </c>
       <c r="B517" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="518">
@@ -17591,7 +17771,7 @@
         <v>83</v>
       </c>
       <c r="B525" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="526">
@@ -17612,7 +17792,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B528" t="s">
         <v>84</v>
@@ -17623,7 +17803,7 @@
         <v>84</v>
       </c>
       <c r="B529" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="530">
@@ -17644,7 +17824,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B532" t="s">
         <v>84</v>
@@ -17711,7 +17891,7 @@
         <v>87</v>
       </c>
       <c r="B540" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="541">
@@ -17740,7 +17920,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B544" t="s">
         <v>88</v>
@@ -17756,7 +17936,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B546" t="s">
         <v>88</v>
@@ -17767,7 +17947,7 @@
         <v>90</v>
       </c>
       <c r="B547" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="548">
@@ -17791,7 +17971,7 @@
         <v>92</v>
       </c>
       <c r="B550" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551">
@@ -17823,12 +18003,12 @@
         <v>94</v>
       </c>
       <c r="B554" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B555" t="s">
         <v>94</v>
@@ -17863,7 +18043,7 @@
         <v>94</v>
       </c>
       <c r="B559" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="560">
@@ -17871,7 +18051,7 @@
         <v>94</v>
       </c>
       <c r="B560" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="561">
@@ -17887,7 +18067,7 @@
         <v>95</v>
       </c>
       <c r="B562" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="563">
@@ -17911,7 +18091,7 @@
         <v>96</v>
       </c>
       <c r="B565" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="566">
@@ -17919,7 +18099,7 @@
         <v>96</v>
       </c>
       <c r="B566" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="567">
@@ -17943,7 +18123,7 @@
         <v>97</v>
       </c>
       <c r="B569" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="570">
@@ -17959,12 +18139,12 @@
         <v>100</v>
       </c>
       <c r="B571" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B572" t="s">
         <v>101</v>
@@ -17980,7 +18160,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B574" t="s">
         <v>102</v>
@@ -17991,7 +18171,7 @@
         <v>102</v>
       </c>
       <c r="B575" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="576">
@@ -18007,7 +18187,7 @@
         <v>103</v>
       </c>
       <c r="B577" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="578">
@@ -18039,7 +18219,7 @@
         <v>109</v>
       </c>
       <c r="B581" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="582">
@@ -18071,7 +18251,7 @@
         <v>110</v>
       </c>
       <c r="B585" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="586">
@@ -18079,7 +18259,7 @@
         <v>110</v>
       </c>
       <c r="B586" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="587">
@@ -18103,7 +18283,7 @@
         <v>111</v>
       </c>
       <c r="B589" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590">
@@ -18111,7 +18291,7 @@
         <v>111</v>
       </c>
       <c r="B590" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="591">
@@ -18119,7 +18299,7 @@
         <v>112</v>
       </c>
       <c r="B591" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="592">
@@ -18127,7 +18307,7 @@
         <v>112</v>
       </c>
       <c r="B592" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="593">
@@ -18143,12 +18323,12 @@
         <v>113</v>
       </c>
       <c r="B594" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B595" t="s">
         <v>113</v>
@@ -18175,7 +18355,7 @@
         <v>113</v>
       </c>
       <c r="B598" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="599">
@@ -18183,7 +18363,7 @@
         <v>113</v>
       </c>
       <c r="B599" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="600">
@@ -18212,7 +18392,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B603" t="s">
         <v>115</v>
@@ -18228,7 +18408,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B605" t="s">
         <v>115</v>
@@ -18236,7 +18416,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B606" t="s">
         <v>115</v>
@@ -18287,7 +18467,7 @@
         <v>116</v>
       </c>
       <c r="B612" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="613">
@@ -18303,12 +18483,12 @@
         <v>116</v>
       </c>
       <c r="B614" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B615" t="s">
         <v>118</v>
@@ -18335,7 +18515,7 @@
         <v>118</v>
       </c>
       <c r="B618" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="619">
@@ -18351,7 +18531,7 @@
         <v>119</v>
       </c>
       <c r="B620" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="621">
@@ -18359,7 +18539,7 @@
         <v>120</v>
       </c>
       <c r="B621" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="622">
@@ -18431,7 +18611,7 @@
         <v>125</v>
       </c>
       <c r="B630" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="631">
@@ -18455,7 +18635,7 @@
         <v>127</v>
       </c>
       <c r="B633" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="634">
@@ -18492,7 +18672,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B638" t="s">
         <v>129</v>
@@ -18511,7 +18691,7 @@
         <v>131</v>
       </c>
       <c r="B640" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="641">
@@ -18519,7 +18699,7 @@
         <v>131</v>
       </c>
       <c r="B641" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="642">
@@ -18527,7 +18707,7 @@
         <v>133</v>
       </c>
       <c r="B642" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="643">
@@ -18535,7 +18715,7 @@
         <v>133</v>
       </c>
       <c r="B643" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="644">
@@ -18567,7 +18747,7 @@
         <v>139</v>
       </c>
       <c r="B647" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="648">
@@ -18631,7 +18811,7 @@
         <v>145</v>
       </c>
       <c r="B655" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="656">
@@ -18668,7 +18848,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B660" t="s">
         <v>148</v>
@@ -18711,7 +18891,7 @@
         <v>150</v>
       </c>
       <c r="B665" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="666">
@@ -18719,7 +18899,7 @@
         <v>151</v>
       </c>
       <c r="B666" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="667">
@@ -18735,7 +18915,7 @@
         <v>151</v>
       </c>
       <c r="B668" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="669">
@@ -18748,7 +18928,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B670" t="s">
         <v>152</v>
@@ -18767,7 +18947,7 @@
         <v>153</v>
       </c>
       <c r="B672" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="673">
@@ -18775,7 +18955,7 @@
         <v>155</v>
       </c>
       <c r="B673" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="674">
@@ -18823,7 +19003,7 @@
         <v>160</v>
       </c>
       <c r="B679" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="680">
@@ -18847,7 +19027,7 @@
         <v>161</v>
       </c>
       <c r="B682" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="683">
@@ -18863,7 +19043,7 @@
         <v>162</v>
       </c>
       <c r="B684" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="685">
@@ -18871,7 +19051,7 @@
         <v>162</v>
       </c>
       <c r="B685" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="686">
@@ -18895,7 +19075,7 @@
         <v>163</v>
       </c>
       <c r="B688" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="689">
@@ -18903,7 +19083,7 @@
         <v>163</v>
       </c>
       <c r="B689" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="690">
@@ -18911,7 +19091,7 @@
         <v>164</v>
       </c>
       <c r="B690" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="691">
@@ -18927,12 +19107,12 @@
         <v>166</v>
       </c>
       <c r="B692" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B693" t="s">
         <v>167</v>
@@ -18951,7 +19131,7 @@
         <v>169</v>
       </c>
       <c r="B695" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="696">
@@ -18964,7 +19144,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B697" t="s">
         <v>171</v>
@@ -18975,7 +19155,7 @@
         <v>172</v>
       </c>
       <c r="B698" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="699">
@@ -18983,7 +19163,7 @@
         <v>173</v>
       </c>
       <c r="B699" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="700">
@@ -18991,7 +19171,7 @@
         <v>173</v>
       </c>
       <c r="B700" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="701">
@@ -19015,7 +19195,7 @@
         <v>176</v>
       </c>
       <c r="B703" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="704">
@@ -19036,7 +19216,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B706" t="s">
         <v>179</v>
@@ -19063,7 +19243,7 @@
         <v>186</v>
       </c>
       <c r="B709" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="710">
@@ -19071,7 +19251,7 @@
         <v>190</v>
       </c>
       <c r="B710" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="711">
@@ -19087,7 +19267,7 @@
         <v>191</v>
       </c>
       <c r="B712" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="713">
@@ -19103,7 +19283,7 @@
         <v>193</v>
       </c>
       <c r="B714" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="715">
@@ -19132,7 +19312,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B718" t="s">
         <v>198</v>
@@ -19196,7 +19376,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B726" t="s">
         <v>207</v>
@@ -19236,7 +19416,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B731" t="s">
         <v>214</v>
@@ -19255,7 +19435,7 @@
         <v>217</v>
       </c>
       <c r="B733" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="734">
@@ -19276,7 +19456,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B736" t="s">
         <v>220</v>
@@ -19295,7 +19475,7 @@
         <v>221</v>
       </c>
       <c r="B738" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="739">
@@ -19303,7 +19483,7 @@
         <v>221</v>
       </c>
       <c r="B739" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="740">
@@ -19332,7 +19512,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B743" t="s">
         <v>227</v>
@@ -19340,7 +19520,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B744" t="s">
         <v>227</v>
@@ -19351,12 +19531,12 @@
         <v>228</v>
       </c>
       <c r="B745" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B746" t="s">
         <v>228</v>
@@ -19375,7 +19555,7 @@
         <v>229</v>
       </c>
       <c r="B748" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="749">
@@ -19399,7 +19579,7 @@
         <v>231</v>
       </c>
       <c r="B751" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="752">
@@ -19412,7 +19592,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B753" t="s">
         <v>232</v>
@@ -19439,7 +19619,7 @@
         <v>234</v>
       </c>
       <c r="B756" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="757">
@@ -19460,7 +19640,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B759" t="s">
         <v>242</v>
@@ -19495,7 +19675,7 @@
         <v>245</v>
       </c>
       <c r="B763" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="764">
@@ -19508,7 +19688,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B765" t="s">
         <v>250</v>
@@ -19535,7 +19715,7 @@
         <v>253</v>
       </c>
       <c r="B768" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="769">
@@ -19556,7 +19736,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B771" t="s">
         <v>257</v>
@@ -19564,7 +19744,7 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B772" t="s">
         <v>258</v>
@@ -19575,7 +19755,7 @@
         <v>262</v>
       </c>
       <c r="B773" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="774">
@@ -19599,7 +19779,7 @@
         <v>265</v>
       </c>
       <c r="B776" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="777">
@@ -19607,7 +19787,7 @@
         <v>266</v>
       </c>
       <c r="B777" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="778">
@@ -19615,12 +19795,12 @@
         <v>266</v>
       </c>
       <c r="B778" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B779" t="s">
         <v>268</v>
@@ -19687,7 +19867,7 @@
         <v>277</v>
       </c>
       <c r="B787" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="788">
@@ -19703,7 +19883,7 @@
         <v>277</v>
       </c>
       <c r="B789" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="790">
@@ -19711,7 +19891,7 @@
         <v>278</v>
       </c>
       <c r="B790" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="791">
@@ -19719,7 +19899,7 @@
         <v>278</v>
       </c>
       <c r="B791" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="792">
@@ -19743,7 +19923,7 @@
         <v>290</v>
       </c>
       <c r="B794" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="795">
@@ -19759,7 +19939,7 @@
         <v>293</v>
       </c>
       <c r="B796" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="797">
@@ -19772,7 +19952,7 @@
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B798" t="s">
         <v>295</v>
@@ -19788,7 +19968,7 @@
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B800" t="s">
         <v>296</v>
@@ -19831,7 +20011,7 @@
         <v>313</v>
       </c>
       <c r="B805" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="806">
@@ -19847,7 +20027,7 @@
         <v>318</v>
       </c>
       <c r="B807" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="808">
@@ -19871,7 +20051,7 @@
         <v>319</v>
       </c>
       <c r="B810" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="811">
@@ -19879,7 +20059,7 @@
         <v>320</v>
       </c>
       <c r="B811" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="812">
@@ -19895,7 +20075,7 @@
         <v>323</v>
       </c>
       <c r="B813" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="814">
@@ -19959,12 +20139,12 @@
         <v>339</v>
       </c>
       <c r="B821" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B822" t="s">
         <v>343</v>
@@ -20015,7 +20195,7 @@
         <v>355</v>
       </c>
       <c r="B828" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="829">
@@ -20023,7 +20203,7 @@
         <v>355</v>
       </c>
       <c r="B829" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="830">
@@ -20044,7 +20224,7 @@
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B832" t="s">
         <v>371</v>
@@ -20063,7 +20243,7 @@
         <v>379</v>
       </c>
       <c r="B834" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="835">
@@ -20071,7 +20251,7 @@
         <v>381</v>
       </c>
       <c r="B835" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="836">
@@ -20092,7 +20272,7 @@
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B838" t="s">
         <v>393</v>
@@ -20135,7 +20315,7 @@
         <v>447</v>
       </c>
       <c r="B843" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="844">
@@ -20148,7 +20328,7 @@
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B845" t="s">
         <v>461</v>
@@ -20167,7 +20347,7 @@
         <v>490</v>
       </c>
       <c r="B847" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="848">
@@ -20191,7 +20371,7 @@
         <v>511</v>
       </c>
       <c r="B850" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="851">
@@ -20199,7 +20379,7 @@
         <v>571</v>
       </c>
       <c r="B851" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
